--- a/code/build/results_MyFireflyD30_elitista/results_cec2017_30.xlsx
+++ b/code/build/results_MyFireflyD30_elitista/results_cec2017_30.xlsx
@@ -603,94 +603,94 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>19248486000</v>
+        <v>19975110000</v>
       </c>
       <c r="D2" t="n">
-        <v>7.332099793579999e+39</v>
+        <v>2.149654e+37</v>
       </c>
       <c r="E2" t="n">
-        <v>180052.04</v>
+        <v>175058.5</v>
       </c>
       <c r="F2" t="n">
-        <v>3798.0072</v>
+        <v>6725.76</v>
       </c>
       <c r="G2" t="n">
-        <v>394.17664</v>
+        <v>389.8898</v>
       </c>
       <c r="H2" t="n">
-        <v>82.46496199999999</v>
+        <v>65.6998</v>
       </c>
       <c r="I2" t="n">
-        <v>908.4468999999999</v>
+        <v>998.6421</v>
       </c>
       <c r="J2" t="n">
-        <v>346.08982</v>
+        <v>420.0622</v>
       </c>
       <c r="K2" t="n">
-        <v>18473.45</v>
+        <v>16884.3</v>
       </c>
       <c r="L2" t="n">
-        <v>8148.445</v>
+        <v>7856.437</v>
       </c>
       <c r="M2" t="n">
-        <v>8076.0288</v>
+        <v>12543.64</v>
       </c>
       <c r="N2" t="n">
-        <v>1645465400</v>
+        <v>3216557000</v>
       </c>
       <c r="O2" t="n">
-        <v>295665340</v>
+        <v>282434400</v>
       </c>
       <c r="P2" t="n">
-        <v>893051.1800000001</v>
+        <v>1333710</v>
       </c>
       <c r="Q2" t="n">
-        <v>38972738</v>
+        <v>96571960</v>
       </c>
       <c r="R2" t="n">
-        <v>2509.1408</v>
+        <v>2882.79</v>
       </c>
       <c r="S2" t="n">
-        <v>1000.98286</v>
+        <v>1384.528</v>
       </c>
       <c r="T2" t="n">
-        <v>24148424</v>
+        <v>7507528</v>
       </c>
       <c r="U2" t="n">
-        <v>62955564</v>
+        <v>170898300</v>
       </c>
       <c r="V2" t="n">
-        <v>1086.00798</v>
+        <v>985.3968</v>
       </c>
       <c r="W2" t="n">
-        <v>539.1065000000001</v>
+        <v>578.1478</v>
       </c>
       <c r="X2" t="n">
-        <v>8161.719</v>
+        <v>8488.367</v>
       </c>
       <c r="Y2" t="n">
-        <v>864.8536200000001</v>
+        <v>868.6181</v>
       </c>
       <c r="Z2" t="n">
-        <v>850.9097599999999</v>
+        <v>907.6893</v>
       </c>
       <c r="AA2" t="n">
-        <v>1695.6352</v>
+        <v>2321.862</v>
       </c>
       <c r="AB2" t="n">
-        <v>5907.0502</v>
+        <v>6509.903</v>
       </c>
       <c r="AC2" t="n">
-        <v>822.2459999999999</v>
+        <v>870.0312</v>
       </c>
       <c r="AD2" t="n">
-        <v>2032.9962</v>
+        <v>1993.114</v>
       </c>
       <c r="AE2" t="n">
-        <v>2672.9836</v>
+        <v>3058.498</v>
       </c>
       <c r="AF2" t="n">
-        <v>86215930</v>
+        <v>67522460</v>
       </c>
       <c r="AG2" t="n">
         <v>30</v>
@@ -704,94 +704,94 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>30209756</v>
+        <v>35643510</v>
       </c>
       <c r="D3" t="n">
-        <v>1.9323200283e+20</v>
+        <v>3.532735e+19</v>
       </c>
       <c r="E3" t="n">
-        <v>139010.668</v>
+        <v>145166.3</v>
       </c>
       <c r="F3" t="n">
-        <v>135.67662</v>
+        <v>119.4576</v>
       </c>
       <c r="G3" t="n">
-        <v>200.40202</v>
+        <v>194.4096</v>
       </c>
       <c r="H3" t="n">
-        <v>61.756114</v>
+        <v>34.47426</v>
       </c>
       <c r="I3" t="n">
-        <v>235.33748</v>
+        <v>200.2639</v>
       </c>
       <c r="J3" t="n">
-        <v>178.920428</v>
+        <v>230.7111</v>
       </c>
       <c r="K3" t="n">
-        <v>10083.7668</v>
+        <v>9943.885</v>
       </c>
       <c r="L3" t="n">
-        <v>4150.2594</v>
+        <v>3224.236</v>
       </c>
       <c r="M3" t="n">
-        <v>626.59462</v>
+        <v>585.8984</v>
       </c>
       <c r="N3" t="n">
-        <v>42399234.6</v>
+        <v>139118300</v>
       </c>
       <c r="O3" t="n">
-        <v>1490829</v>
+        <v>919254.2</v>
       </c>
       <c r="P3" t="n">
-        <v>139660.258</v>
+        <v>312991.3</v>
       </c>
       <c r="Q3" t="n">
-        <v>371034.74</v>
+        <v>452238.2</v>
       </c>
       <c r="R3" t="n">
-        <v>1626.7332</v>
+        <v>1749.781</v>
       </c>
       <c r="S3" t="n">
-        <v>601.4931</v>
+        <v>718.8739</v>
       </c>
       <c r="T3" t="n">
-        <v>5062414.060000001</v>
+        <v>1700285</v>
       </c>
       <c r="U3" t="n">
-        <v>5827987.08</v>
+        <v>8499014</v>
       </c>
       <c r="V3" t="n">
-        <v>716.32802</v>
+        <v>616.2233</v>
       </c>
       <c r="W3" t="n">
-        <v>385.92258</v>
+        <v>394.4078</v>
       </c>
       <c r="X3" t="n">
-        <v>4619.3858</v>
+        <v>5017.201</v>
       </c>
       <c r="Y3" t="n">
-        <v>663.06534</v>
+        <v>675.261</v>
       </c>
       <c r="Z3" t="n">
-        <v>665.6960800000001</v>
+        <v>722.4926</v>
       </c>
       <c r="AA3" t="n">
-        <v>465.19874</v>
+        <v>569.8529</v>
       </c>
       <c r="AB3" t="n">
-        <v>4024.7564</v>
+        <v>4441.563</v>
       </c>
       <c r="AC3" t="n">
-        <v>665.00996</v>
+        <v>659.7672</v>
       </c>
       <c r="AD3" t="n">
-        <v>508.83664</v>
+        <v>506.3423</v>
       </c>
       <c r="AE3" t="n">
-        <v>1744.6634</v>
+        <v>2487.807</v>
       </c>
       <c r="AF3" t="n">
-        <v>10670462.4</v>
+        <v>9162964</v>
       </c>
       <c r="AG3" t="n">
         <v>30</v>
@@ -805,94 +805,94 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>1433212</v>
+        <v>5422928</v>
       </c>
       <c r="D4" t="n">
-        <v>2.8624910901e+18</v>
+        <v>5.581331e+17</v>
       </c>
       <c r="E4" t="n">
-        <v>88521.01000000001</v>
+        <v>62493.71</v>
       </c>
       <c r="F4" t="n">
-        <v>108.983274</v>
+        <v>92.30797</v>
       </c>
       <c r="G4" t="n">
-        <v>187.0368</v>
+        <v>184.3271</v>
       </c>
       <c r="H4" t="n">
-        <v>56.51245400000001</v>
+        <v>29.58605</v>
       </c>
       <c r="I4" t="n">
-        <v>130.98106</v>
+        <v>106.0525</v>
       </c>
       <c r="J4" t="n">
-        <v>166.388278</v>
+        <v>215.9642</v>
       </c>
       <c r="K4" t="n">
-        <v>5303.498</v>
+        <v>6980.349</v>
       </c>
       <c r="L4" t="n">
-        <v>3818.287</v>
+        <v>2899.438</v>
       </c>
       <c r="M4" t="n">
-        <v>428.38998</v>
+        <v>342.183</v>
       </c>
       <c r="N4" t="n">
-        <v>22536555.8</v>
+        <v>90161090</v>
       </c>
       <c r="O4" t="n">
-        <v>157608.5</v>
+        <v>80485.25999999999</v>
       </c>
       <c r="P4" t="n">
-        <v>45568.398</v>
+        <v>73412.74000000001</v>
       </c>
       <c r="Q4" t="n">
-        <v>122949.5</v>
+        <v>55574.54</v>
       </c>
       <c r="R4" t="n">
-        <v>1553.71822</v>
+        <v>1687.499</v>
       </c>
       <c r="S4" t="n">
-        <v>580.20598</v>
+        <v>688.8461</v>
       </c>
       <c r="T4" t="n">
-        <v>650569.12</v>
+        <v>518112.2</v>
       </c>
       <c r="U4" t="n">
-        <v>2597546.62</v>
+        <v>2726301</v>
       </c>
       <c r="V4" t="n">
-        <v>682.4587799999999</v>
+        <v>583.0801</v>
       </c>
       <c r="W4" t="n">
-        <v>374.59208</v>
+        <v>377.8816</v>
       </c>
       <c r="X4" t="n">
-        <v>4189.7754</v>
+        <v>4580.158</v>
       </c>
       <c r="Y4" t="n">
-        <v>648.3588</v>
+        <v>661.6004</v>
       </c>
       <c r="Z4" t="n">
-        <v>656.6862199999999</v>
+        <v>713.6548</v>
       </c>
       <c r="AA4" t="n">
-        <v>429.19244</v>
+        <v>542.6997</v>
       </c>
       <c r="AB4" t="n">
-        <v>3907.8104</v>
+        <v>4192.263</v>
       </c>
       <c r="AC4" t="n">
-        <v>638.8487</v>
+        <v>655.9023</v>
       </c>
       <c r="AD4" t="n">
-        <v>479.14558</v>
+        <v>470.2065</v>
       </c>
       <c r="AE4" t="n">
-        <v>1691.4276</v>
+        <v>2352.425</v>
       </c>
       <c r="AF4" t="n">
-        <v>4486326.8</v>
+        <v>4146160</v>
       </c>
       <c r="AG4" t="n">
         <v>30</v>
@@ -906,94 +906,94 @@
         <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>32281.876</v>
+        <v>216335</v>
       </c>
       <c r="D5" t="n">
-        <v>4.4105749462e+17</v>
+        <v>2.168711e+16</v>
       </c>
       <c r="E5" t="n">
-        <v>36981.34</v>
+        <v>27302.88</v>
       </c>
       <c r="F5" t="n">
-        <v>101.689598</v>
+        <v>90.91464999999999</v>
       </c>
       <c r="G5" t="n">
-        <v>185.27022</v>
+        <v>181.3545</v>
       </c>
       <c r="H5" t="n">
-        <v>54.839098</v>
+        <v>27.7945</v>
       </c>
       <c r="I5" t="n">
-        <v>111.644816</v>
+        <v>87.37201</v>
       </c>
       <c r="J5" t="n">
-        <v>164.802022</v>
+        <v>214.9604</v>
       </c>
       <c r="K5" t="n">
-        <v>4551.323399999999</v>
+        <v>5542.104</v>
       </c>
       <c r="L5" t="n">
-        <v>3767.471</v>
+        <v>2845.145</v>
       </c>
       <c r="M5" t="n">
-        <v>388.0377</v>
+        <v>307.2063</v>
       </c>
       <c r="N5" t="n">
-        <v>16575766.8</v>
+        <v>69289080</v>
       </c>
       <c r="O5" t="n">
-        <v>129374.948</v>
+        <v>56509.74</v>
       </c>
       <c r="P5" t="n">
-        <v>2808.87298</v>
+        <v>7110.436</v>
       </c>
       <c r="Q5" t="n">
-        <v>118121.808</v>
+        <v>53652.59</v>
       </c>
       <c r="R5" t="n">
-        <v>1522.82092</v>
+        <v>1649.335</v>
       </c>
       <c r="S5" t="n">
-        <v>552.34924</v>
+        <v>682.2406999999999</v>
       </c>
       <c r="T5" t="n">
-        <v>163868.672</v>
+        <v>208414.2</v>
       </c>
       <c r="U5" t="n">
-        <v>987340.9199999999</v>
+        <v>465082.2</v>
       </c>
       <c r="V5" t="n">
-        <v>614.94218</v>
+        <v>578.5019</v>
       </c>
       <c r="W5" t="n">
-        <v>372.57686</v>
+        <v>375.8122</v>
       </c>
       <c r="X5" t="n">
-        <v>4110.0388</v>
+        <v>4475.212</v>
       </c>
       <c r="Y5" t="n">
-        <v>646.34232</v>
+        <v>658.5734</v>
       </c>
       <c r="Z5" t="n">
-        <v>655.90842</v>
+        <v>712.8441</v>
       </c>
       <c r="AA5" t="n">
-        <v>417.82774</v>
+        <v>517.9634</v>
       </c>
       <c r="AB5" t="n">
-        <v>3887.0686</v>
+        <v>4164.139</v>
       </c>
       <c r="AC5" t="n">
-        <v>634.5926000000001</v>
+        <v>611.5626</v>
       </c>
       <c r="AD5" t="n">
-        <v>467.13398</v>
+        <v>465.0894</v>
       </c>
       <c r="AE5" t="n">
-        <v>1677.3906</v>
+        <v>2143.586</v>
       </c>
       <c r="AF5" t="n">
-        <v>2002703.88</v>
+        <v>2246166</v>
       </c>
       <c r="AG5" t="n">
         <v>30</v>
@@ -1007,94 +1007,94 @@
         <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>11624.1622</v>
+        <v>7806.324</v>
       </c>
       <c r="D6" t="n">
-        <v>4.4105749462e+17</v>
+        <v>2.168711e+16</v>
       </c>
       <c r="E6" t="n">
-        <v>23811.406</v>
+        <v>18758.83</v>
       </c>
       <c r="F6" t="n">
-        <v>100.296504</v>
+        <v>90.62168</v>
       </c>
       <c r="G6" t="n">
-        <v>185.20058</v>
+        <v>181.1109</v>
       </c>
       <c r="H6" t="n">
-        <v>54.518514</v>
+        <v>27.56989</v>
       </c>
       <c r="I6" t="n">
-        <v>111.296354</v>
+        <v>86.965</v>
       </c>
       <c r="J6" t="n">
-        <v>164.765594</v>
+        <v>214.9111</v>
       </c>
       <c r="K6" t="n">
-        <v>4447.269</v>
+        <v>5387.945</v>
       </c>
       <c r="L6" t="n">
-        <v>3758.5628</v>
+        <v>2842.486</v>
       </c>
       <c r="M6" t="n">
-        <v>370.24422</v>
+        <v>278.4445</v>
       </c>
       <c r="N6" t="n">
-        <v>13425255.4</v>
+        <v>44379170</v>
       </c>
       <c r="O6" t="n">
-        <v>129339.66</v>
+        <v>56488.05</v>
       </c>
       <c r="P6" t="n">
-        <v>467.12878</v>
+        <v>328.1308</v>
       </c>
       <c r="Q6" t="n">
-        <v>118070.124</v>
+        <v>53629.5</v>
       </c>
       <c r="R6" t="n">
-        <v>1464.71964</v>
+        <v>1601.48</v>
       </c>
       <c r="S6" t="n">
-        <v>514.3466000000001</v>
+        <v>680.8319</v>
       </c>
       <c r="T6" t="n">
-        <v>93677.674</v>
+        <v>155345.7</v>
       </c>
       <c r="U6" t="n">
-        <v>408820.96</v>
+        <v>443975.5</v>
       </c>
       <c r="V6" t="n">
-        <v>604.83728</v>
+        <v>577.1625</v>
       </c>
       <c r="W6" t="n">
-        <v>372.10898</v>
+        <v>375.6933</v>
       </c>
       <c r="X6" t="n">
-        <v>4076.6314</v>
+        <v>4463.293</v>
       </c>
       <c r="Y6" t="n">
-        <v>646.0087599999999</v>
+        <v>657.4726000000001</v>
       </c>
       <c r="Z6" t="n">
-        <v>655.867</v>
+        <v>712.8223</v>
       </c>
       <c r="AA6" t="n">
-        <v>411.79432</v>
+        <v>454.7084</v>
       </c>
       <c r="AB6" t="n">
-        <v>3882.4954</v>
+        <v>4158.531</v>
       </c>
       <c r="AC6" t="n">
-        <v>597.69808</v>
+        <v>605.1697</v>
       </c>
       <c r="AD6" t="n">
-        <v>460.17464</v>
+        <v>460.7802</v>
       </c>
       <c r="AE6" t="n">
-        <v>1675.3088</v>
+        <v>1993.771</v>
       </c>
       <c r="AF6" t="n">
-        <v>1775345.62</v>
+        <v>613034.2</v>
       </c>
       <c r="AG6" t="n">
         <v>30</v>
@@ -1108,94 +1108,94 @@
         <v>20</v>
       </c>
       <c r="C7" t="n">
-        <v>11342.686</v>
+        <v>2624.628</v>
       </c>
       <c r="D7" t="n">
-        <v>4.4105749462e+17</v>
+        <v>2.168711e+16</v>
       </c>
       <c r="E7" t="n">
-        <v>16555.7846</v>
+        <v>15092.64</v>
       </c>
       <c r="F7" t="n">
-        <v>99.47495599999999</v>
+        <v>90.54499</v>
       </c>
       <c r="G7" t="n">
-        <v>185.1921</v>
+        <v>181.0848</v>
       </c>
       <c r="H7" t="n">
-        <v>54.404642</v>
+        <v>27.39938</v>
       </c>
       <c r="I7" t="n">
-        <v>111.28945</v>
+        <v>86.92716</v>
       </c>
       <c r="J7" t="n">
-        <v>164.764436</v>
+        <v>214.9097</v>
       </c>
       <c r="K7" t="n">
-        <v>4415.8244</v>
+        <v>5345.776</v>
       </c>
       <c r="L7" t="n">
-        <v>3754.4788</v>
+        <v>2842.384</v>
       </c>
       <c r="M7" t="n">
-        <v>363.8639</v>
+        <v>264.0457</v>
       </c>
       <c r="N7" t="n">
-        <v>9993511</v>
+        <v>19132280</v>
       </c>
       <c r="O7" t="n">
-        <v>129330.016</v>
+        <v>56482.98</v>
       </c>
       <c r="P7" t="n">
-        <v>387.58612</v>
+        <v>325.0981</v>
       </c>
       <c r="Q7" t="n">
-        <v>118054.664</v>
+        <v>53618.45</v>
       </c>
       <c r="R7" t="n">
-        <v>1439.1974</v>
+        <v>1593.175</v>
       </c>
       <c r="S7" t="n">
-        <v>512.3672800000001</v>
+        <v>680.0857</v>
       </c>
       <c r="T7" t="n">
-        <v>46044.672</v>
+        <v>112845.5</v>
       </c>
       <c r="U7" t="n">
-        <v>136703.942</v>
+        <v>426875.8</v>
       </c>
       <c r="V7" t="n">
-        <v>579.7737800000001</v>
+        <v>343.3502</v>
       </c>
       <c r="W7" t="n">
-        <v>371.91954</v>
+        <v>375.6692</v>
       </c>
       <c r="X7" t="n">
-        <v>4065.2768</v>
+        <v>4461.4</v>
       </c>
       <c r="Y7" t="n">
-        <v>645.9684199999999</v>
+        <v>656.9614</v>
       </c>
       <c r="Z7" t="n">
-        <v>655.86428</v>
+        <v>712.822</v>
       </c>
       <c r="AA7" t="n">
-        <v>407.72612</v>
+        <v>440.7307</v>
       </c>
       <c r="AB7" t="n">
-        <v>3881.4854</v>
+        <v>4157.3</v>
       </c>
       <c r="AC7" t="n">
-        <v>594.3307</v>
+        <v>604.7452</v>
       </c>
       <c r="AD7" t="n">
-        <v>452.57146</v>
+        <v>458.2243</v>
       </c>
       <c r="AE7" t="n">
-        <v>1596.6022</v>
+        <v>1987.167</v>
       </c>
       <c r="AF7" t="n">
-        <v>1132693.62</v>
+        <v>564612.1</v>
       </c>
       <c r="AG7" t="n">
         <v>30</v>
@@ -1209,94 +1209,94 @@
         <v>30</v>
       </c>
       <c r="C8" t="n">
-        <v>11342.686</v>
+        <v>2624.628</v>
       </c>
       <c r="D8" t="n">
-        <v>4.4105749462e+17</v>
+        <v>2.168711e+16</v>
       </c>
       <c r="E8" t="n">
-        <v>16555.7846</v>
+        <v>15092.64</v>
       </c>
       <c r="F8" t="n">
-        <v>99.47495599999999</v>
+        <v>90.54499</v>
       </c>
       <c r="G8" t="n">
-        <v>185.1921</v>
+        <v>181.0848</v>
       </c>
       <c r="H8" t="n">
-        <v>54.404642</v>
+        <v>27.39938</v>
       </c>
       <c r="I8" t="n">
-        <v>111.28945</v>
+        <v>86.92716</v>
       </c>
       <c r="J8" t="n">
-        <v>164.764436</v>
+        <v>214.9097</v>
       </c>
       <c r="K8" t="n">
-        <v>4415.8244</v>
+        <v>5345.776</v>
       </c>
       <c r="L8" t="n">
-        <v>3754.4788</v>
+        <v>2842.384</v>
       </c>
       <c r="M8" t="n">
-        <v>363.8639</v>
+        <v>264.0457</v>
       </c>
       <c r="N8" t="n">
-        <v>9945195</v>
+        <v>19132280</v>
       </c>
       <c r="O8" t="n">
-        <v>129330.016</v>
+        <v>56482.98</v>
       </c>
       <c r="P8" t="n">
-        <v>387.58612</v>
+        <v>325.0981</v>
       </c>
       <c r="Q8" t="n">
-        <v>118054.664</v>
+        <v>53618.45</v>
       </c>
       <c r="R8" t="n">
-        <v>1439.1974</v>
+        <v>1593.175</v>
       </c>
       <c r="S8" t="n">
-        <v>512.3672800000001</v>
+        <v>680.0857</v>
       </c>
       <c r="T8" t="n">
-        <v>43097.292</v>
+        <v>112845.5</v>
       </c>
       <c r="U8" t="n">
-        <v>136703.942</v>
+        <v>426875.8</v>
       </c>
       <c r="V8" t="n">
-        <v>579.7737800000001</v>
+        <v>343.3502</v>
       </c>
       <c r="W8" t="n">
-        <v>371.91954</v>
+        <v>375.6692</v>
       </c>
       <c r="X8" t="n">
-        <v>4065.2768</v>
+        <v>4461.4</v>
       </c>
       <c r="Y8" t="n">
-        <v>645.9684199999999</v>
+        <v>656.9614</v>
       </c>
       <c r="Z8" t="n">
-        <v>655.86428</v>
+        <v>712.822</v>
       </c>
       <c r="AA8" t="n">
-        <v>407.72612</v>
+        <v>440.7307</v>
       </c>
       <c r="AB8" t="n">
-        <v>3881.4854</v>
+        <v>4157.3</v>
       </c>
       <c r="AC8" t="n">
-        <v>594.3307</v>
+        <v>604.7452</v>
       </c>
       <c r="AD8" t="n">
-        <v>452.57146</v>
+        <v>458.2243</v>
       </c>
       <c r="AE8" t="n">
-        <v>1596.6022</v>
+        <v>1987.167</v>
       </c>
       <c r="AF8" t="n">
-        <v>989858.4199999999</v>
+        <v>564612.1</v>
       </c>
       <c r="AG8" t="n">
         <v>30</v>
@@ -1310,94 +1310,94 @@
         <v>40</v>
       </c>
       <c r="C9" t="n">
-        <v>11342.686</v>
+        <v>2624.628</v>
       </c>
       <c r="D9" t="n">
-        <v>4.4105749462e+17</v>
+        <v>2.168711e+16</v>
       </c>
       <c r="E9" t="n">
-        <v>16555.7846</v>
+        <v>15092.64</v>
       </c>
       <c r="F9" t="n">
-        <v>99.47495599999999</v>
+        <v>90.54499</v>
       </c>
       <c r="G9" t="n">
-        <v>185.1921</v>
+        <v>181.0848</v>
       </c>
       <c r="H9" t="n">
-        <v>54.404642</v>
+        <v>27.39938</v>
       </c>
       <c r="I9" t="n">
-        <v>111.28945</v>
+        <v>86.92716</v>
       </c>
       <c r="J9" t="n">
-        <v>164.764436</v>
+        <v>214.9097</v>
       </c>
       <c r="K9" t="n">
-        <v>4415.8244</v>
+        <v>5345.776</v>
       </c>
       <c r="L9" t="n">
-        <v>3754.4788</v>
+        <v>2842.384</v>
       </c>
       <c r="M9" t="n">
-        <v>363.8639</v>
+        <v>264.0457</v>
       </c>
       <c r="N9" t="n">
-        <v>9945195</v>
+        <v>19132280</v>
       </c>
       <c r="O9" t="n">
-        <v>129330.016</v>
+        <v>56482.98</v>
       </c>
       <c r="P9" t="n">
-        <v>387.58612</v>
+        <v>325.0981</v>
       </c>
       <c r="Q9" t="n">
-        <v>118054.664</v>
+        <v>53618.45</v>
       </c>
       <c r="R9" t="n">
-        <v>1439.1974</v>
+        <v>1593.175</v>
       </c>
       <c r="S9" t="n">
-        <v>512.3672800000001</v>
+        <v>680.0857</v>
       </c>
       <c r="T9" t="n">
-        <v>43097.292</v>
+        <v>112845.5</v>
       </c>
       <c r="U9" t="n">
-        <v>136703.942</v>
+        <v>426875.8</v>
       </c>
       <c r="V9" t="n">
-        <v>579.7737800000001</v>
+        <v>343.3502</v>
       </c>
       <c r="W9" t="n">
-        <v>371.91954</v>
+        <v>375.6692</v>
       </c>
       <c r="X9" t="n">
-        <v>4065.2768</v>
+        <v>4461.4</v>
       </c>
       <c r="Y9" t="n">
-        <v>645.9684199999999</v>
+        <v>656.9614</v>
       </c>
       <c r="Z9" t="n">
-        <v>655.86428</v>
+        <v>712.822</v>
       </c>
       <c r="AA9" t="n">
-        <v>407.72612</v>
+        <v>440.7307</v>
       </c>
       <c r="AB9" t="n">
-        <v>3881.4854</v>
+        <v>4157.3</v>
       </c>
       <c r="AC9" t="n">
-        <v>594.3307</v>
+        <v>604.7452</v>
       </c>
       <c r="AD9" t="n">
-        <v>452.57146</v>
+        <v>458.2243</v>
       </c>
       <c r="AE9" t="n">
-        <v>1596.6022</v>
+        <v>1987.167</v>
       </c>
       <c r="AF9" t="n">
-        <v>989858.4199999999</v>
+        <v>564612.1</v>
       </c>
       <c r="AG9" t="n">
         <v>30</v>
@@ -1411,94 +1411,94 @@
         <v>50</v>
       </c>
       <c r="C10" t="n">
-        <v>11342.686</v>
+        <v>2624.628</v>
       </c>
       <c r="D10" t="n">
-        <v>4.4105749462e+17</v>
+        <v>2.168711e+16</v>
       </c>
       <c r="E10" t="n">
-        <v>16555.7846</v>
+        <v>15092.64</v>
       </c>
       <c r="F10" t="n">
-        <v>99.47495599999999</v>
+        <v>90.54499</v>
       </c>
       <c r="G10" t="n">
-        <v>185.1921</v>
+        <v>181.0848</v>
       </c>
       <c r="H10" t="n">
-        <v>54.404642</v>
+        <v>27.39938</v>
       </c>
       <c r="I10" t="n">
-        <v>111.28945</v>
+        <v>86.92716</v>
       </c>
       <c r="J10" t="n">
-        <v>164.764436</v>
+        <v>214.9097</v>
       </c>
       <c r="K10" t="n">
-        <v>4415.8244</v>
+        <v>5345.776</v>
       </c>
       <c r="L10" t="n">
-        <v>3754.4788</v>
+        <v>2842.384</v>
       </c>
       <c r="M10" t="n">
-        <v>363.8639</v>
+        <v>264.0457</v>
       </c>
       <c r="N10" t="n">
-        <v>9945195</v>
+        <v>19132280</v>
       </c>
       <c r="O10" t="n">
-        <v>129330.016</v>
+        <v>56482.98</v>
       </c>
       <c r="P10" t="n">
-        <v>387.58612</v>
+        <v>325.0981</v>
       </c>
       <c r="Q10" t="n">
-        <v>118054.664</v>
+        <v>53618.45</v>
       </c>
       <c r="R10" t="n">
-        <v>1439.1974</v>
+        <v>1593.175</v>
       </c>
       <c r="S10" t="n">
-        <v>512.3672800000001</v>
+        <v>680.0857</v>
       </c>
       <c r="T10" t="n">
-        <v>43097.292</v>
+        <v>112845.5</v>
       </c>
       <c r="U10" t="n">
-        <v>136703.942</v>
+        <v>426875.8</v>
       </c>
       <c r="V10" t="n">
-        <v>579.7737800000001</v>
+        <v>343.3502</v>
       </c>
       <c r="W10" t="n">
-        <v>371.91954</v>
+        <v>375.6692</v>
       </c>
       <c r="X10" t="n">
-        <v>4065.2768</v>
+        <v>4461.4</v>
       </c>
       <c r="Y10" t="n">
-        <v>645.9684199999999</v>
+        <v>656.9614</v>
       </c>
       <c r="Z10" t="n">
-        <v>655.86428</v>
+        <v>712.822</v>
       </c>
       <c r="AA10" t="n">
-        <v>407.72612</v>
+        <v>440.7307</v>
       </c>
       <c r="AB10" t="n">
-        <v>3881.4854</v>
+        <v>4157.3</v>
       </c>
       <c r="AC10" t="n">
-        <v>594.3307</v>
+        <v>604.7452</v>
       </c>
       <c r="AD10" t="n">
-        <v>452.57146</v>
+        <v>458.2243</v>
       </c>
       <c r="AE10" t="n">
-        <v>1596.6022</v>
+        <v>1987.167</v>
       </c>
       <c r="AF10" t="n">
-        <v>989858.4199999999</v>
+        <v>564612.1</v>
       </c>
       <c r="AG10" t="n">
         <v>30</v>
@@ -1512,94 +1512,94 @@
         <v>60</v>
       </c>
       <c r="C11" t="n">
-        <v>11342.686</v>
+        <v>2624.628</v>
       </c>
       <c r="D11" t="n">
-        <v>4.4105749462e+17</v>
+        <v>2.168711e+16</v>
       </c>
       <c r="E11" t="n">
-        <v>16555.7846</v>
+        <v>15092.64</v>
       </c>
       <c r="F11" t="n">
-        <v>99.47495599999999</v>
+        <v>90.54499</v>
       </c>
       <c r="G11" t="n">
-        <v>185.1921</v>
+        <v>181.0848</v>
       </c>
       <c r="H11" t="n">
-        <v>54.404642</v>
+        <v>27.39938</v>
       </c>
       <c r="I11" t="n">
-        <v>111.28945</v>
+        <v>86.92716</v>
       </c>
       <c r="J11" t="n">
-        <v>164.764436</v>
+        <v>214.9097</v>
       </c>
       <c r="K11" t="n">
-        <v>4415.8244</v>
+        <v>5345.776</v>
       </c>
       <c r="L11" t="n">
-        <v>3754.4788</v>
+        <v>2842.384</v>
       </c>
       <c r="M11" t="n">
-        <v>363.8639</v>
+        <v>264.0457</v>
       </c>
       <c r="N11" t="n">
-        <v>9945195</v>
+        <v>19132280</v>
       </c>
       <c r="O11" t="n">
-        <v>129330.016</v>
+        <v>56482.98</v>
       </c>
       <c r="P11" t="n">
-        <v>387.58612</v>
+        <v>325.0981</v>
       </c>
       <c r="Q11" t="n">
-        <v>118054.664</v>
+        <v>53618.45</v>
       </c>
       <c r="R11" t="n">
-        <v>1439.1974</v>
+        <v>1593.175</v>
       </c>
       <c r="S11" t="n">
-        <v>512.3672800000001</v>
+        <v>680.0857</v>
       </c>
       <c r="T11" t="n">
-        <v>43097.292</v>
+        <v>112845.5</v>
       </c>
       <c r="U11" t="n">
-        <v>136703.942</v>
+        <v>426875.8</v>
       </c>
       <c r="V11" t="n">
-        <v>579.7737800000001</v>
+        <v>343.3502</v>
       </c>
       <c r="W11" t="n">
-        <v>371.91954</v>
+        <v>375.6692</v>
       </c>
       <c r="X11" t="n">
-        <v>4065.2768</v>
+        <v>4461.4</v>
       </c>
       <c r="Y11" t="n">
-        <v>645.9684199999999</v>
+        <v>656.9614</v>
       </c>
       <c r="Z11" t="n">
-        <v>655.86428</v>
+        <v>712.822</v>
       </c>
       <c r="AA11" t="n">
-        <v>407.72612</v>
+        <v>440.7307</v>
       </c>
       <c r="AB11" t="n">
-        <v>3881.4854</v>
+        <v>4157.3</v>
       </c>
       <c r="AC11" t="n">
-        <v>594.3307</v>
+        <v>604.7452</v>
       </c>
       <c r="AD11" t="n">
-        <v>452.57146</v>
+        <v>458.2243</v>
       </c>
       <c r="AE11" t="n">
-        <v>1596.6022</v>
+        <v>1987.167</v>
       </c>
       <c r="AF11" t="n">
-        <v>989858.4199999999</v>
+        <v>564612.1</v>
       </c>
       <c r="AG11" t="n">
         <v>30</v>
@@ -1613,94 +1613,94 @@
         <v>70</v>
       </c>
       <c r="C12" t="n">
-        <v>11342.686</v>
+        <v>2624.628</v>
       </c>
       <c r="D12" t="n">
-        <v>4.4105749462e+17</v>
+        <v>2.168711e+16</v>
       </c>
       <c r="E12" t="n">
-        <v>16555.7846</v>
+        <v>15092.64</v>
       </c>
       <c r="F12" t="n">
-        <v>99.47495599999999</v>
+        <v>90.54499</v>
       </c>
       <c r="G12" t="n">
-        <v>185.1921</v>
+        <v>181.0848</v>
       </c>
       <c r="H12" t="n">
-        <v>54.404642</v>
+        <v>27.39938</v>
       </c>
       <c r="I12" t="n">
-        <v>111.28945</v>
+        <v>86.92716</v>
       </c>
       <c r="J12" t="n">
-        <v>164.764436</v>
+        <v>214.9097</v>
       </c>
       <c r="K12" t="n">
-        <v>4415.8244</v>
+        <v>5345.776</v>
       </c>
       <c r="L12" t="n">
-        <v>3754.4788</v>
+        <v>2842.384</v>
       </c>
       <c r="M12" t="n">
-        <v>363.8639</v>
+        <v>264.0457</v>
       </c>
       <c r="N12" t="n">
-        <v>9945195</v>
+        <v>19132280</v>
       </c>
       <c r="O12" t="n">
-        <v>129330.016</v>
+        <v>56482.98</v>
       </c>
       <c r="P12" t="n">
-        <v>387.58612</v>
+        <v>325.0981</v>
       </c>
       <c r="Q12" t="n">
-        <v>118054.664</v>
+        <v>53618.45</v>
       </c>
       <c r="R12" t="n">
-        <v>1439.1974</v>
+        <v>1593.175</v>
       </c>
       <c r="S12" t="n">
-        <v>512.3672800000001</v>
+        <v>680.0857</v>
       </c>
       <c r="T12" t="n">
-        <v>43097.292</v>
+        <v>112845.5</v>
       </c>
       <c r="U12" t="n">
-        <v>136703.942</v>
+        <v>426875.8</v>
       </c>
       <c r="V12" t="n">
-        <v>579.7737800000001</v>
+        <v>343.3502</v>
       </c>
       <c r="W12" t="n">
-        <v>371.91954</v>
+        <v>375.6692</v>
       </c>
       <c r="X12" t="n">
-        <v>4065.2768</v>
+        <v>4461.4</v>
       </c>
       <c r="Y12" t="n">
-        <v>645.9684199999999</v>
+        <v>656.9614</v>
       </c>
       <c r="Z12" t="n">
-        <v>655.86428</v>
+        <v>712.822</v>
       </c>
       <c r="AA12" t="n">
-        <v>407.72612</v>
+        <v>440.7307</v>
       </c>
       <c r="AB12" t="n">
-        <v>3881.4854</v>
+        <v>4157.3</v>
       </c>
       <c r="AC12" t="n">
-        <v>594.3307</v>
+        <v>604.7452</v>
       </c>
       <c r="AD12" t="n">
-        <v>452.57146</v>
+        <v>458.2243</v>
       </c>
       <c r="AE12" t="n">
-        <v>1596.6022</v>
+        <v>1987.167</v>
       </c>
       <c r="AF12" t="n">
-        <v>989858.4199999999</v>
+        <v>564612.1</v>
       </c>
       <c r="AG12" t="n">
         <v>30</v>
@@ -1714,94 +1714,94 @@
         <v>80</v>
       </c>
       <c r="C13" t="n">
-        <v>11342.686</v>
+        <v>2624.628</v>
       </c>
       <c r="D13" t="n">
-        <v>4.4105749462e+17</v>
+        <v>2.168711e+16</v>
       </c>
       <c r="E13" t="n">
-        <v>16555.7846</v>
+        <v>15092.64</v>
       </c>
       <c r="F13" t="n">
-        <v>99.47495599999999</v>
+        <v>90.54499</v>
       </c>
       <c r="G13" t="n">
-        <v>185.1921</v>
+        <v>181.0848</v>
       </c>
       <c r="H13" t="n">
-        <v>54.404642</v>
+        <v>27.39938</v>
       </c>
       <c r="I13" t="n">
-        <v>111.28945</v>
+        <v>86.92716</v>
       </c>
       <c r="J13" t="n">
-        <v>164.764436</v>
+        <v>214.9097</v>
       </c>
       <c r="K13" t="n">
-        <v>4415.8244</v>
+        <v>5345.776</v>
       </c>
       <c r="L13" t="n">
-        <v>3754.4788</v>
+        <v>2842.384</v>
       </c>
       <c r="M13" t="n">
-        <v>363.8639</v>
+        <v>264.0457</v>
       </c>
       <c r="N13" t="n">
-        <v>9945195</v>
+        <v>19132280</v>
       </c>
       <c r="O13" t="n">
-        <v>129330.016</v>
+        <v>56482.98</v>
       </c>
       <c r="P13" t="n">
-        <v>387.58612</v>
+        <v>325.0981</v>
       </c>
       <c r="Q13" t="n">
-        <v>118054.664</v>
+        <v>53618.45</v>
       </c>
       <c r="R13" t="n">
-        <v>1439.1974</v>
+        <v>1593.175</v>
       </c>
       <c r="S13" t="n">
-        <v>512.3672800000001</v>
+        <v>680.0857</v>
       </c>
       <c r="T13" t="n">
-        <v>43097.292</v>
+        <v>112845.5</v>
       </c>
       <c r="U13" t="n">
-        <v>136703.942</v>
+        <v>426875.8</v>
       </c>
       <c r="V13" t="n">
-        <v>579.7737800000001</v>
+        <v>343.3502</v>
       </c>
       <c r="W13" t="n">
-        <v>371.91954</v>
+        <v>375.6692</v>
       </c>
       <c r="X13" t="n">
-        <v>4065.2768</v>
+        <v>4461.4</v>
       </c>
       <c r="Y13" t="n">
-        <v>645.9684199999999</v>
+        <v>656.9614</v>
       </c>
       <c r="Z13" t="n">
-        <v>655.86428</v>
+        <v>712.822</v>
       </c>
       <c r="AA13" t="n">
-        <v>407.72612</v>
+        <v>440.7307</v>
       </c>
       <c r="AB13" t="n">
-        <v>3881.4854</v>
+        <v>4157.3</v>
       </c>
       <c r="AC13" t="n">
-        <v>594.3307</v>
+        <v>604.7452</v>
       </c>
       <c r="AD13" t="n">
-        <v>452.57146</v>
+        <v>458.2243</v>
       </c>
       <c r="AE13" t="n">
-        <v>1596.6022</v>
+        <v>1987.167</v>
       </c>
       <c r="AF13" t="n">
-        <v>989858.4199999999</v>
+        <v>564612.1</v>
       </c>
       <c r="AG13" t="n">
         <v>30</v>
@@ -1815,94 +1815,94 @@
         <v>90</v>
       </c>
       <c r="C14" t="n">
-        <v>11342.686</v>
+        <v>2624.628</v>
       </c>
       <c r="D14" t="n">
-        <v>4.4105749462e+17</v>
+        <v>2.168711e+16</v>
       </c>
       <c r="E14" t="n">
-        <v>16555.7846</v>
+        <v>15092.64</v>
       </c>
       <c r="F14" t="n">
-        <v>99.47495599999999</v>
+        <v>90.54499</v>
       </c>
       <c r="G14" t="n">
-        <v>185.1921</v>
+        <v>181.0848</v>
       </c>
       <c r="H14" t="n">
-        <v>54.404642</v>
+        <v>27.39938</v>
       </c>
       <c r="I14" t="n">
-        <v>111.28945</v>
+        <v>86.92716</v>
       </c>
       <c r="J14" t="n">
-        <v>164.764436</v>
+        <v>214.9097</v>
       </c>
       <c r="K14" t="n">
-        <v>4415.8244</v>
+        <v>5345.776</v>
       </c>
       <c r="L14" t="n">
-        <v>3754.4788</v>
+        <v>2842.384</v>
       </c>
       <c r="M14" t="n">
-        <v>363.8639</v>
+        <v>264.0457</v>
       </c>
       <c r="N14" t="n">
-        <v>9945195</v>
+        <v>19132280</v>
       </c>
       <c r="O14" t="n">
-        <v>129330.016</v>
+        <v>56482.98</v>
       </c>
       <c r="P14" t="n">
-        <v>387.58612</v>
+        <v>325.0981</v>
       </c>
       <c r="Q14" t="n">
-        <v>118054.664</v>
+        <v>53618.45</v>
       </c>
       <c r="R14" t="n">
-        <v>1439.1974</v>
+        <v>1593.175</v>
       </c>
       <c r="S14" t="n">
-        <v>512.3672800000001</v>
+        <v>680.0857</v>
       </c>
       <c r="T14" t="n">
-        <v>43097.292</v>
+        <v>112845.5</v>
       </c>
       <c r="U14" t="n">
-        <v>136703.942</v>
+        <v>426875.8</v>
       </c>
       <c r="V14" t="n">
-        <v>579.7737800000001</v>
+        <v>343.3502</v>
       </c>
       <c r="W14" t="n">
-        <v>371.91954</v>
+        <v>375.6692</v>
       </c>
       <c r="X14" t="n">
-        <v>4065.2768</v>
+        <v>4461.4</v>
       </c>
       <c r="Y14" t="n">
-        <v>645.9684199999999</v>
+        <v>656.9614</v>
       </c>
       <c r="Z14" t="n">
-        <v>655.86428</v>
+        <v>712.822</v>
       </c>
       <c r="AA14" t="n">
-        <v>407.72612</v>
+        <v>440.7307</v>
       </c>
       <c r="AB14" t="n">
-        <v>3881.4854</v>
+        <v>4157.3</v>
       </c>
       <c r="AC14" t="n">
-        <v>594.3307</v>
+        <v>604.7452</v>
       </c>
       <c r="AD14" t="n">
-        <v>452.57146</v>
+        <v>458.2243</v>
       </c>
       <c r="AE14" t="n">
-        <v>1596.6022</v>
+        <v>1987.167</v>
       </c>
       <c r="AF14" t="n">
-        <v>989858.4199999999</v>
+        <v>564612.1</v>
       </c>
       <c r="AG14" t="n">
         <v>30</v>
@@ -1916,94 +1916,94 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>11342.686</v>
+        <v>2624.628</v>
       </c>
       <c r="D15" t="n">
-        <v>4.4105749462e+17</v>
+        <v>2.168711e+16</v>
       </c>
       <c r="E15" t="n">
-        <v>16555.7846</v>
+        <v>15092.64</v>
       </c>
       <c r="F15" t="n">
-        <v>99.47495599999999</v>
+        <v>90.54499</v>
       </c>
       <c r="G15" t="n">
-        <v>185.1921</v>
+        <v>181.0848</v>
       </c>
       <c r="H15" t="n">
-        <v>54.404642</v>
+        <v>27.39938</v>
       </c>
       <c r="I15" t="n">
-        <v>111.28945</v>
+        <v>86.92716</v>
       </c>
       <c r="J15" t="n">
-        <v>164.764436</v>
+        <v>214.9097</v>
       </c>
       <c r="K15" t="n">
-        <v>4415.8244</v>
+        <v>5345.776</v>
       </c>
       <c r="L15" t="n">
-        <v>3754.4788</v>
+        <v>2842.384</v>
       </c>
       <c r="M15" t="n">
-        <v>363.8639</v>
+        <v>264.0457</v>
       </c>
       <c r="N15" t="n">
-        <v>9945195</v>
+        <v>19132280</v>
       </c>
       <c r="O15" t="n">
-        <v>129330.016</v>
+        <v>56482.98</v>
       </c>
       <c r="P15" t="n">
-        <v>387.58612</v>
+        <v>325.0981</v>
       </c>
       <c r="Q15" t="n">
-        <v>118054.664</v>
+        <v>53618.45</v>
       </c>
       <c r="R15" t="n">
-        <v>1439.1974</v>
+        <v>1593.175</v>
       </c>
       <c r="S15" t="n">
-        <v>512.3672800000001</v>
+        <v>680.0857</v>
       </c>
       <c r="T15" t="n">
-        <v>43097.292</v>
+        <v>112845.5</v>
       </c>
       <c r="U15" t="n">
-        <v>136703.942</v>
+        <v>426875.8</v>
       </c>
       <c r="V15" t="n">
-        <v>579.7737800000001</v>
+        <v>343.3502</v>
       </c>
       <c r="W15" t="n">
-        <v>371.91954</v>
+        <v>375.6692</v>
       </c>
       <c r="X15" t="n">
-        <v>4065.2768</v>
+        <v>4461.4</v>
       </c>
       <c r="Y15" t="n">
-        <v>645.9684199999999</v>
+        <v>656.9614</v>
       </c>
       <c r="Z15" t="n">
-        <v>655.86428</v>
+        <v>712.822</v>
       </c>
       <c r="AA15" t="n">
-        <v>407.72612</v>
+        <v>440.7307</v>
       </c>
       <c r="AB15" t="n">
-        <v>3881.4854</v>
+        <v>4157.3</v>
       </c>
       <c r="AC15" t="n">
-        <v>594.3307</v>
+        <v>604.7452</v>
       </c>
       <c r="AD15" t="n">
-        <v>452.57146</v>
+        <v>458.2243</v>
       </c>
       <c r="AE15" t="n">
-        <v>1596.6022</v>
+        <v>1987.167</v>
       </c>
       <c r="AF15" t="n">
-        <v>989858.4199999999</v>
+        <v>564612.1</v>
       </c>
       <c r="AG15" t="n">
         <v>30</v>
